--- a/Excel_profile_templates/Profile template - CC Condition Pregnancy episode details.xlsx
+++ b/Excel_profile_templates/Profile template - CC Condition Pregnancy episode details.xlsx
@@ -16,28 +16,28 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="133">
   <si>
+    <t>Select</t>
+  </si>
+  <si>
+    <t>Mandatory</t>
+  </si>
+  <si>
+    <t>Required</t>
+  </si>
+  <si>
+    <t>Optional</t>
+  </si>
+  <si>
+    <t>Not Used</t>
+  </si>
+  <si>
     <t>Name</t>
   </si>
   <si>
-    <t>Select</t>
-  </si>
-  <si>
     <t>Card.</t>
   </si>
   <si>
     <t>Conformance</t>
-  </si>
-  <si>
-    <t>Mandatory</t>
-  </si>
-  <si>
-    <t>Required</t>
-  </si>
-  <si>
-    <t>Optional</t>
-  </si>
-  <si>
-    <t>Not Used</t>
   </si>
   <si>
     <t>Type</t>
@@ -465,13 +465,13 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font/>
     <font>
       <b/>
       <sz val="8.0"/>
       <color rgb="FF333333"/>
       <name val="Helvetica Neue"/>
     </font>
-    <font/>
     <font>
       <b/>
       <sz val="8.0"/>
@@ -562,10 +562,10 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
@@ -663,16 +663,16 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
+      <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E1" s="4" t="s">
@@ -720,7 +720,7 @@
         <v>14</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D3" s="11" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#id","Id")</f>
@@ -738,7 +738,7 @@
         <v>14</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D4" s="11" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/resource.html#Meta","Meta")</f>
@@ -756,7 +756,7 @@
         <v>14</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D5" s="11" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#uri","Uri")</f>
@@ -774,7 +774,7 @@
         <v>14</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D6" s="11" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#code","Code")</f>
@@ -792,7 +792,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D7" s="11" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/narrative.html#Narrative","Narrative")</f>
@@ -810,7 +810,7 @@
         <v>25</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D8" s="11" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/resource.html","Resource")</f>
@@ -828,7 +828,7 @@
         <v>25</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D9" s="15" t="str">
         <f>HYPERLINK("https://fhir.hl7.org.uk/STU3/StructureDefinition/Extension-CareConnect-ConditionEpisode-1","Extension-CareConnect-ConditionEpisode-1")</f>
@@ -846,7 +846,7 @@
         <v>25</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D10" s="11" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/extensibility.html#Extension","Extension")</f>
@@ -864,7 +864,7 @@
         <v>25</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D11" s="11" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#identifier","Identifier")</f>
@@ -882,7 +882,7 @@
         <v>14</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D12" s="11" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#code","Code")</f>
@@ -900,7 +900,7 @@
         <v>14</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D13" s="11" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#codeableconcept","CodeableConcept")</f>
@@ -918,7 +918,7 @@
         <v>25</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D14" s="11" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#coding","Coding")</f>
@@ -936,7 +936,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D15" s="11" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#uri","Uri")</f>
@@ -954,7 +954,7 @@
         <v>14</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D16" s="11" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -972,7 +972,7 @@
         <v>14</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D17" s="11" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#code","Code")</f>
@@ -990,7 +990,7 @@
         <v>14</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D18" s="11" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -1008,7 +1008,7 @@
         <v>14</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D19" s="11" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#boolean","Boolean")</f>
@@ -1026,7 +1026,7 @@
         <v>14</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D20" s="11" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -1044,7 +1044,7 @@
         <v>52</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D21" s="11" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#uri","Uri")</f>
@@ -1062,7 +1062,7 @@
         <v>52</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D22" s="11" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -1080,7 +1080,7 @@
         <v>14</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D23" s="11" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#period","Period")</f>
@@ -1098,7 +1098,7 @@
         <v>14</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D24" s="15" t="s">
         <v>59</v>
@@ -1115,7 +1115,7 @@
         <v>14</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D25" s="15" t="s">
         <v>59</v>
@@ -1132,7 +1132,7 @@
         <v>14</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D26" s="16" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/references.html","Reference")</f>
@@ -1146,7 +1146,7 @@
       <c r="A27" s="9"/>
       <c r="B27" s="7"/>
       <c r="C27" s="10" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D27" s="17" t="str">
         <f>HYPERLINK("https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Organization-1","CareConnect-Organization-1")</f>
@@ -1162,7 +1162,7 @@
         <v>14</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D28" s="11" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -1180,7 +1180,7 @@
         <v>14</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D29" s="11" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#identifier","Identifier")</f>
@@ -1198,7 +1198,7 @@
         <v>14</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D30" s="11" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -1216,7 +1216,7 @@
         <v>14</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D31" s="11" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#code","Code")</f>
@@ -1234,7 +1234,7 @@
         <v>25</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D32" s="11" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#codeableconcept","CodeableConcept")</f>
@@ -1252,7 +1252,7 @@
         <v>25</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D33" s="11" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#coding","Coding")</f>
@@ -1270,7 +1270,7 @@
         <v>52</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D34" s="11" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#uri","Uri")</f>
@@ -1288,7 +1288,7 @@
         <v>14</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D35" s="11" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -1306,7 +1306,7 @@
         <v>52</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D36" s="11" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#code","Code")</f>
@@ -1324,7 +1324,7 @@
         <v>52</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D37" s="11" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -1342,7 +1342,7 @@
         <v>14</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D38" s="11" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#boolean","Boolean")</f>
@@ -1360,7 +1360,7 @@
         <v>14</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D39" s="11" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -1378,7 +1378,7 @@
         <v>14</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D40" s="11" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#codeableconcept","CodeableConcept")</f>
@@ -1396,7 +1396,7 @@
         <v>25</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D41" s="11" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#coding","Coding")</f>
@@ -1414,7 +1414,7 @@
         <v>14</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D42" s="11" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#uri","Uri")</f>
@@ -1432,7 +1432,7 @@
         <v>14</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D43" s="11" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -1450,7 +1450,7 @@
         <v>14</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D44" s="11" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#code","Code")</f>
@@ -1468,7 +1468,7 @@
         <v>14</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D45" s="11" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -1486,7 +1486,7 @@
         <v>14</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D46" s="11" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#boolean","Boolean")</f>
@@ -1504,7 +1504,7 @@
         <v>14</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D47" s="11" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -1522,7 +1522,7 @@
         <v>52</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D48" s="11" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#codeableconcept","CodeableConcept")</f>
@@ -1540,7 +1540,7 @@
         <v>25</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D49" s="11" t="str">
         <f t="shared" ref="D49:D50" si="1">HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#coding","Coding")</f>
@@ -1558,7 +1558,7 @@
         <v>14</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D50" s="11" t="str">
         <f t="shared" si="1"/>
@@ -1576,7 +1576,7 @@
         <v>14</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D51" s="15" t="str">
         <f>HYPERLINK("https://fhir.hl7.org.uk/STU3/StructureDefinition/Extension-coding-sctdescid","Extension-coding-sctdescid")</f>
@@ -1594,7 +1594,7 @@
         <v>52</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D52" s="11" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#uri","Uri")</f>
@@ -1612,7 +1612,7 @@
         <v>14</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D53" s="11" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -1630,7 +1630,7 @@
         <v>52</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D54" s="11" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#code","Code")</f>
@@ -1648,7 +1648,7 @@
         <v>52</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D55" s="11" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -1666,7 +1666,7 @@
         <v>14</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D56" s="11" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#boolean","Boolean")</f>
@@ -1684,7 +1684,7 @@
         <v>14</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D57" s="11" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -1702,7 +1702,7 @@
         <v>25</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D58" s="11" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#codeableconcept","CodeableConcept")</f>
@@ -1720,7 +1720,7 @@
         <v>25</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D59" s="11" t="str">
         <f t="shared" ref="D59:D60" si="2">HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#coding","Coding")</f>
@@ -1738,7 +1738,7 @@
         <v>14</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D60" s="11" t="str">
         <f t="shared" si="2"/>
@@ -1756,7 +1756,7 @@
         <v>14</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D61" s="15" t="str">
         <f>HYPERLINK("https://fhir.hl7.org.uk/STU3/StructureDefinition/Extension-coding-sctdescid","Extension-coding-sctdescid")</f>
@@ -1774,7 +1774,7 @@
         <v>52</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D62" s="11" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#uri","Uri")</f>
@@ -1792,7 +1792,7 @@
         <v>14</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D63" s="11" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -1810,7 +1810,7 @@
         <v>52</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D64" s="11" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#code","Code")</f>
@@ -1828,7 +1828,7 @@
         <v>52</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D65" s="11" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -1846,7 +1846,7 @@
         <v>14</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D66" s="11" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#boolean","Boolean")</f>
@@ -1864,7 +1864,7 @@
         <v>14</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D67" s="11" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -1882,7 +1882,7 @@
         <v>52</v>
       </c>
       <c r="C68" s="19" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D68" s="20" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/references.html","Reference")</f>
@@ -1896,7 +1896,7 @@
       <c r="A69" s="14"/>
       <c r="B69" s="7"/>
       <c r="C69" s="10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D69" s="15" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/StructureDefinition/Group","Group")</f>
@@ -1908,7 +1908,7 @@
       <c r="A70" s="14"/>
       <c r="B70" s="7"/>
       <c r="C70" s="10" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D70" s="17" t="str">
         <f>HYPERLINK("https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Patient-1","CareConnect-Patient-1")</f>
@@ -1924,7 +1924,7 @@
         <v>52</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D71" s="11" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -1942,7 +1942,7 @@
         <v>14</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D72" s="11" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#identifier","Identifier")</f>
@@ -1960,7 +1960,7 @@
         <v>14</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D73" s="11" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -1978,7 +1978,7 @@
         <v>14</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D74" s="16" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/references.html","Reference")</f>
@@ -1992,7 +1992,7 @@
       <c r="A75" s="14"/>
       <c r="B75" s="7"/>
       <c r="C75" s="10" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D75" s="15" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/StructureDefinition/EpisodeOfCare","EpisodeOfCare")</f>
@@ -2004,7 +2004,7 @@
       <c r="A76" s="14"/>
       <c r="B76" s="7"/>
       <c r="C76" s="10" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D76" s="15" t="str">
         <f>HYPERLINK("https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Encounter-1","CareConnect-Encounter-1")</f>
@@ -2020,7 +2020,7 @@
         <v>14</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D77" s="11" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -2038,7 +2038,7 @@
         <v>14</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D78" s="11" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#identifier","Identifier")</f>
@@ -2056,7 +2056,7 @@
         <v>14</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D79" s="11" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -2070,11 +2070,11 @@
       <c r="A80" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="B80" s="7" t="s">
-        <v>14</v>
+      <c r="B80" s="18" t="s">
+        <v>52</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D80" s="11" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#datetime","dateTime")</f>
@@ -2088,7 +2088,7 @@
       <c r="A81" s="14"/>
       <c r="B81" s="7"/>
       <c r="C81" s="10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D81" s="15" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#age","Age")</f>
@@ -2100,7 +2100,7 @@
       <c r="A82" s="14"/>
       <c r="B82" s="7"/>
       <c r="C82" s="10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D82" s="11" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#period","Period")</f>
@@ -2112,7 +2112,7 @@
       <c r="A83" s="14"/>
       <c r="B83" s="7"/>
       <c r="C83" s="10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D83" s="15" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#range","Range")</f>
@@ -2124,7 +2124,7 @@
       <c r="A84" s="14"/>
       <c r="B84" s="7"/>
       <c r="C84" s="10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D84" s="11" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -2140,7 +2140,7 @@
         <v>14</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D85" s="11" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#datetime","dateTime")</f>
@@ -2154,7 +2154,7 @@
       <c r="A86" s="14"/>
       <c r="B86" s="7"/>
       <c r="C86" s="10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D86" s="15" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#age","Age")</f>
@@ -2166,7 +2166,7 @@
       <c r="A87" s="14"/>
       <c r="B87" s="7"/>
       <c r="C87" s="10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D87" s="11" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#boolean","Boolean")</f>
@@ -2178,7 +2178,7 @@
       <c r="A88" s="14"/>
       <c r="B88" s="7"/>
       <c r="C88" s="10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D88" s="11" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#period","Period")</f>
@@ -2190,7 +2190,7 @@
       <c r="A89" s="14"/>
       <c r="B89" s="7"/>
       <c r="C89" s="10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D89" s="15" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#range","Range")</f>
@@ -2202,7 +2202,7 @@
       <c r="A90" s="14"/>
       <c r="B90" s="7"/>
       <c r="C90" s="10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D90" s="11" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -2218,7 +2218,7 @@
         <v>14</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D91" s="11" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#datetime","dateTime")</f>
@@ -2236,7 +2236,7 @@
         <v>14</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D92" s="16" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/references.html","Reference")</f>
@@ -2250,7 +2250,7 @@
       <c r="A93" s="14"/>
       <c r="B93" s="7"/>
       <c r="C93" s="10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D93" s="17" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/StructureDefinition/RelatedPerson","RelatedPerson")</f>
@@ -2262,7 +2262,7 @@
       <c r="A94" s="14"/>
       <c r="B94" s="7"/>
       <c r="C94" s="10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D94" s="17" t="str">
         <f>HYPERLINK("https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Patient-1","CareConnect-Patient-1")</f>
@@ -2274,7 +2274,7 @@
       <c r="A95" s="14"/>
       <c r="B95" s="7"/>
       <c r="C95" s="10" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D95" s="17" t="str">
         <f>HYPERLINK("https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Practitioner-1","CareConnect-Practitioner-1")</f>
@@ -2290,7 +2290,7 @@
         <v>14</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D96" s="11" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -2308,7 +2308,7 @@
         <v>14</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D97" s="11" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#identifier","Identifier")</f>
@@ -2326,7 +2326,7 @@
         <v>14</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D98" s="11" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -2344,7 +2344,7 @@
         <v>14</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D99" s="11" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/backboneelement.html","BackboneElement")</f>
@@ -2362,7 +2362,7 @@
         <v>25</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D100" s="11" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/extensibility.html#Extension","Extension")</f>
@@ -2380,7 +2380,7 @@
         <v>14</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D101" s="11" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#codeableconcept","CodeableConcept")</f>
@@ -2398,7 +2398,7 @@
         <v>25</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D102" s="11" t="str">
         <f t="shared" ref="D102:D103" si="3">HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#coding","Coding")</f>
@@ -2416,7 +2416,7 @@
         <v>14</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D103" s="11" t="str">
         <f t="shared" si="3"/>
@@ -2434,7 +2434,7 @@
         <v>14</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D104" s="15" t="str">
         <f>HYPERLINK("https://fhir.hl7.org.uk/STU3/StructureDefinition/Extension-coding-sctdescid","Extension-coding-sctdescid")</f>
@@ -2452,7 +2452,7 @@
         <v>52</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D105" s="11" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#uri","Uri")</f>
@@ -2470,7 +2470,7 @@
         <v>14</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D106" s="11" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -2488,7 +2488,7 @@
         <v>52</v>
       </c>
       <c r="C107" s="10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D107" s="11" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#code","Code")</f>
@@ -2506,7 +2506,7 @@
         <v>52</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D108" s="11" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -2524,7 +2524,7 @@
         <v>14</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D109" s="11" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#boolean","Boolean")</f>
@@ -2542,7 +2542,7 @@
         <v>14</v>
       </c>
       <c r="C110" s="10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D110" s="11" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -2560,7 +2560,7 @@
         <v>25</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D111" s="16" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/references.html","Reference")</f>
@@ -2574,7 +2574,7 @@
       <c r="A112" s="14"/>
       <c r="B112" s="7"/>
       <c r="C112" s="10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D112" s="15" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/StructureDefinition/ClinicalImpression","ClinicalImpression")</f>
@@ -2586,7 +2586,7 @@
       <c r="A113" s="14"/>
       <c r="B113" s="7"/>
       <c r="C113" s="10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D113" s="15" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/StructureDefinition/DiagnosticReport","DiagnosticReport")</f>
@@ -2598,7 +2598,7 @@
       <c r="A114" s="14"/>
       <c r="B114" s="7"/>
       <c r="C114" s="10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D114" s="15" t="str">
         <f>HYPERLINK("https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Observation-1","CareConnect-Observation-1")</f>
@@ -2614,7 +2614,7 @@
         <v>14</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D115" s="11" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -2632,7 +2632,7 @@
         <v>14</v>
       </c>
       <c r="C116" s="10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D116" s="11" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#identifier","Identifier")</f>
@@ -2650,7 +2650,7 @@
         <v>14</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D117" s="11" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -2668,7 +2668,7 @@
         <v>25</v>
       </c>
       <c r="C118" s="10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D118" s="11" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/backboneelement.html","BackboneElement")</f>
@@ -2686,7 +2686,7 @@
         <v>25</v>
       </c>
       <c r="C119" s="10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D119" s="11" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/extensibility.html#Extension","Extension")</f>
@@ -2704,7 +2704,7 @@
         <v>25</v>
       </c>
       <c r="C120" s="10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D120" s="11" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#codeableconcept","CodeableConcept")</f>
@@ -2722,7 +2722,7 @@
         <v>25</v>
       </c>
       <c r="C121" s="10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D121" s="11" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#coding","Coding")</f>
@@ -2740,7 +2740,7 @@
         <v>14</v>
       </c>
       <c r="C122" s="10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D122" s="11" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#uri","Uri")</f>
@@ -2758,7 +2758,7 @@
         <v>14</v>
       </c>
       <c r="C123" s="10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D123" s="11" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -2776,7 +2776,7 @@
         <v>14</v>
       </c>
       <c r="C124" s="10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D124" s="11" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#code","Code")</f>
@@ -2794,7 +2794,7 @@
         <v>14</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D125" s="11" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -2812,7 +2812,7 @@
         <v>14</v>
       </c>
       <c r="C126" s="10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D126" s="11" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#boolean","Boolean")</f>
@@ -2830,7 +2830,7 @@
         <v>14</v>
       </c>
       <c r="C127" s="10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D127" s="11" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -2848,7 +2848,7 @@
         <v>25</v>
       </c>
       <c r="C128" s="10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D128" s="20" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/references.html","Reference")</f>
@@ -2862,7 +2862,7 @@
       <c r="A129" s="14"/>
       <c r="B129" s="7"/>
       <c r="C129" s="10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D129" s="11" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/StructureDefinition/Resource","Resource")</f>
@@ -2878,7 +2878,7 @@
         <v>14</v>
       </c>
       <c r="C130" s="10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D130" s="11" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -2896,7 +2896,7 @@
         <v>14</v>
       </c>
       <c r="C131" s="10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D131" s="11" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#identifier","Identifier")</f>
@@ -2914,7 +2914,7 @@
         <v>14</v>
       </c>
       <c r="C132" s="10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D132" s="11" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -2932,7 +2932,7 @@
         <v>25</v>
       </c>
       <c r="C133" s="10" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D133" s="11" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#annotation","Annotation")</f>
@@ -2950,7 +2950,7 @@
         <v>14</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D134" s="16" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/references.html","Reference")</f>
@@ -2964,7 +2964,7 @@
       <c r="A135" s="14"/>
       <c r="B135" s="7"/>
       <c r="C135" s="10" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D135" s="17" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/StructureDefinition/RelatedPerson","RelatedPerson")</f>
@@ -2976,7 +2976,7 @@
       <c r="A136" s="14"/>
       <c r="B136" s="7"/>
       <c r="C136" s="10" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D136" s="17" t="str">
         <f>HYPERLINK("https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Practitioner-1","CareConnect-Practitioner-1")</f>
@@ -2988,7 +2988,7 @@
       <c r="A137" s="14"/>
       <c r="B137" s="7"/>
       <c r="C137" s="10" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D137" s="17" t="str">
         <f>HYPERLINK("https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Patient-1","CareConnect-Patient-1")</f>
@@ -3000,7 +3000,7 @@
       <c r="A138" s="14"/>
       <c r="B138" s="7"/>
       <c r="C138" s="10" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D138" s="11" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -3016,7 +3016,7 @@
         <v>14</v>
       </c>
       <c r="C139" s="10" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D139" s="11" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#datetime","dateTime")</f>
@@ -3034,7 +3034,7 @@
         <v>52</v>
       </c>
       <c r="C140" s="10" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D140" s="11" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -3045,604 +3045,604 @@
       </c>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="A141" s="2"/>
+      <c r="A141" s="1"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="A142" s="2"/>
+      <c r="A142" s="1"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="A143" s="2"/>
+      <c r="A143" s="1"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="A144" s="2"/>
+      <c r="A144" s="1"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="A145" s="2"/>
+      <c r="A145" s="1"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="A146" s="2"/>
+      <c r="A146" s="1"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="A147" s="2"/>
+      <c r="A147" s="1"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="A148" s="2"/>
+      <c r="A148" s="1"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="A149" s="2"/>
+      <c r="A149" s="1"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="A150" s="2"/>
+      <c r="A150" s="1"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="A151" s="2"/>
+      <c r="A151" s="1"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="A152" s="2"/>
+      <c r="A152" s="1"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="A153" s="2"/>
+      <c r="A153" s="1"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="A154" s="2"/>
+      <c r="A154" s="1"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="A155" s="2"/>
+      <c r="A155" s="1"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="A156" s="2"/>
+      <c r="A156" s="1"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="A157" s="2"/>
+      <c r="A157" s="1"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="A158" s="2"/>
+      <c r="A158" s="1"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="A159" s="2"/>
+      <c r="A159" s="1"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="A160" s="2"/>
+      <c r="A160" s="1"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="A161" s="2"/>
+      <c r="A161" s="1"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="A162" s="2"/>
+      <c r="A162" s="1"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="A163" s="2"/>
+      <c r="A163" s="1"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="A164" s="2"/>
+      <c r="A164" s="1"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="A165" s="2"/>
+      <c r="A165" s="1"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="A166" s="2"/>
+      <c r="A166" s="1"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="A167" s="2"/>
+      <c r="A167" s="1"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="A168" s="2"/>
+      <c r="A168" s="1"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="A169" s="2"/>
+      <c r="A169" s="1"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="A170" s="2"/>
+      <c r="A170" s="1"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="A171" s="2"/>
+      <c r="A171" s="1"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="A172" s="2"/>
+      <c r="A172" s="1"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="A173" s="2"/>
+      <c r="A173" s="1"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="A174" s="2"/>
+      <c r="A174" s="1"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="A175" s="2"/>
+      <c r="A175" s="1"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="A176" s="2"/>
+      <c r="A176" s="1"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="A177" s="2"/>
+      <c r="A177" s="1"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="A178" s="2"/>
+      <c r="A178" s="1"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="A179" s="2"/>
+      <c r="A179" s="1"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="A180" s="2"/>
+      <c r="A180" s="1"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="A181" s="2"/>
+      <c r="A181" s="1"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="A182" s="2"/>
+      <c r="A182" s="1"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="A183" s="2"/>
+      <c r="A183" s="1"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="A184" s="2"/>
+      <c r="A184" s="1"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="A185" s="2"/>
+      <c r="A185" s="1"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="A186" s="2"/>
+      <c r="A186" s="1"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="A187" s="2"/>
+      <c r="A187" s="1"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="A188" s="2"/>
+      <c r="A188" s="1"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="A189" s="2"/>
+      <c r="A189" s="1"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="A190" s="2"/>
+      <c r="A190" s="1"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="A191" s="2"/>
+      <c r="A191" s="1"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="A192" s="2"/>
+      <c r="A192" s="1"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="A193" s="2"/>
+      <c r="A193" s="1"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="A194" s="2"/>
+      <c r="A194" s="1"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="A195" s="2"/>
+      <c r="A195" s="1"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="A196" s="2"/>
+      <c r="A196" s="1"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="A197" s="2"/>
+      <c r="A197" s="1"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="A198" s="2"/>
+      <c r="A198" s="1"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="A199" s="2"/>
+      <c r="A199" s="1"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="A200" s="2"/>
+      <c r="A200" s="1"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="A201" s="2"/>
+      <c r="A201" s="1"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="A202" s="2"/>
+      <c r="A202" s="1"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="A203" s="2"/>
+      <c r="A203" s="1"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="A204" s="2"/>
+      <c r="A204" s="1"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="A205" s="2"/>
+      <c r="A205" s="1"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="A206" s="2"/>
+      <c r="A206" s="1"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="A207" s="2"/>
+      <c r="A207" s="1"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="A208" s="2"/>
+      <c r="A208" s="1"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="A209" s="2"/>
+      <c r="A209" s="1"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="A210" s="2"/>
+      <c r="A210" s="1"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="A211" s="2"/>
+      <c r="A211" s="1"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="A212" s="2"/>
+      <c r="A212" s="1"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="A213" s="2"/>
+      <c r="A213" s="1"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="A214" s="2"/>
+      <c r="A214" s="1"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="A215" s="2"/>
+      <c r="A215" s="1"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="A216" s="2"/>
+      <c r="A216" s="1"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="A217" s="2"/>
+      <c r="A217" s="1"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="A218" s="2"/>
+      <c r="A218" s="1"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="A219" s="2"/>
+      <c r="A219" s="1"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="A220" s="2"/>
+      <c r="A220" s="1"/>
     </row>
     <row r="221" ht="15.75" customHeight="1">
-      <c r="A221" s="2"/>
+      <c r="A221" s="1"/>
     </row>
     <row r="222" ht="15.75" customHeight="1">
-      <c r="A222" s="2"/>
+      <c r="A222" s="1"/>
     </row>
     <row r="223" ht="15.75" customHeight="1">
-      <c r="A223" s="2"/>
+      <c r="A223" s="1"/>
     </row>
     <row r="224" ht="15.75" customHeight="1">
-      <c r="A224" s="2"/>
+      <c r="A224" s="1"/>
     </row>
     <row r="225" ht="15.75" customHeight="1">
-      <c r="A225" s="2"/>
+      <c r="A225" s="1"/>
     </row>
     <row r="226" ht="15.75" customHeight="1">
-      <c r="A226" s="2"/>
+      <c r="A226" s="1"/>
     </row>
     <row r="227" ht="15.75" customHeight="1">
-      <c r="A227" s="2"/>
+      <c r="A227" s="1"/>
     </row>
     <row r="228" ht="15.75" customHeight="1">
-      <c r="A228" s="2"/>
+      <c r="A228" s="1"/>
     </row>
     <row r="229" ht="15.75" customHeight="1">
-      <c r="A229" s="2"/>
+      <c r="A229" s="1"/>
     </row>
     <row r="230" ht="15.75" customHeight="1">
-      <c r="A230" s="2"/>
+      <c r="A230" s="1"/>
     </row>
     <row r="231" ht="15.75" customHeight="1">
-      <c r="A231" s="2"/>
+      <c r="A231" s="1"/>
     </row>
     <row r="232" ht="15.75" customHeight="1">
-      <c r="A232" s="2"/>
+      <c r="A232" s="1"/>
     </row>
     <row r="233" ht="15.75" customHeight="1">
-      <c r="A233" s="2"/>
+      <c r="A233" s="1"/>
     </row>
     <row r="234" ht="15.75" customHeight="1">
-      <c r="A234" s="2"/>
+      <c r="A234" s="1"/>
     </row>
     <row r="235" ht="15.75" customHeight="1">
-      <c r="A235" s="2"/>
+      <c r="A235" s="1"/>
     </row>
     <row r="236" ht="15.75" customHeight="1">
-      <c r="A236" s="2"/>
+      <c r="A236" s="1"/>
     </row>
     <row r="237" ht="15.75" customHeight="1">
-      <c r="A237" s="2"/>
+      <c r="A237" s="1"/>
     </row>
     <row r="238" ht="15.75" customHeight="1">
-      <c r="A238" s="2"/>
+      <c r="A238" s="1"/>
     </row>
     <row r="239" ht="15.75" customHeight="1">
-      <c r="A239" s="2"/>
+      <c r="A239" s="1"/>
     </row>
     <row r="240" ht="15.75" customHeight="1">
-      <c r="A240" s="2"/>
+      <c r="A240" s="1"/>
     </row>
     <row r="241" ht="15.75" customHeight="1">
-      <c r="A241" s="2"/>
+      <c r="A241" s="1"/>
     </row>
     <row r="242" ht="15.75" customHeight="1">
-      <c r="A242" s="2"/>
+      <c r="A242" s="1"/>
     </row>
     <row r="243" ht="15.75" customHeight="1">
-      <c r="A243" s="2"/>
+      <c r="A243" s="1"/>
     </row>
     <row r="244" ht="15.75" customHeight="1">
-      <c r="A244" s="2"/>
+      <c r="A244" s="1"/>
     </row>
     <row r="245" ht="15.75" customHeight="1">
-      <c r="A245" s="2"/>
+      <c r="A245" s="1"/>
     </row>
     <row r="246" ht="15.75" customHeight="1">
-      <c r="A246" s="2"/>
+      <c r="A246" s="1"/>
     </row>
     <row r="247" ht="15.75" customHeight="1">
-      <c r="A247" s="2"/>
+      <c r="A247" s="1"/>
     </row>
     <row r="248" ht="15.75" customHeight="1">
-      <c r="A248" s="2"/>
+      <c r="A248" s="1"/>
     </row>
     <row r="249" ht="15.75" customHeight="1">
-      <c r="A249" s="2"/>
+      <c r="A249" s="1"/>
     </row>
     <row r="250" ht="15.75" customHeight="1">
-      <c r="A250" s="2"/>
+      <c r="A250" s="1"/>
     </row>
     <row r="251" ht="15.75" customHeight="1">
-      <c r="A251" s="2"/>
+      <c r="A251" s="1"/>
     </row>
     <row r="252" ht="15.75" customHeight="1">
-      <c r="A252" s="2"/>
+      <c r="A252" s="1"/>
     </row>
     <row r="253" ht="15.75" customHeight="1">
-      <c r="A253" s="2"/>
+      <c r="A253" s="1"/>
     </row>
     <row r="254" ht="15.75" customHeight="1">
-      <c r="A254" s="2"/>
+      <c r="A254" s="1"/>
     </row>
     <row r="255" ht="15.75" customHeight="1">
-      <c r="A255" s="2"/>
+      <c r="A255" s="1"/>
     </row>
     <row r="256" ht="15.75" customHeight="1">
-      <c r="A256" s="2"/>
+      <c r="A256" s="1"/>
     </row>
     <row r="257" ht="15.75" customHeight="1">
-      <c r="A257" s="2"/>
+      <c r="A257" s="1"/>
     </row>
     <row r="258" ht="15.75" customHeight="1">
-      <c r="A258" s="2"/>
+      <c r="A258" s="1"/>
     </row>
     <row r="259" ht="15.75" customHeight="1">
-      <c r="A259" s="2"/>
+      <c r="A259" s="1"/>
     </row>
     <row r="260" ht="15.75" customHeight="1">
-      <c r="A260" s="2"/>
+      <c r="A260" s="1"/>
     </row>
     <row r="261" ht="15.75" customHeight="1">
-      <c r="A261" s="2"/>
+      <c r="A261" s="1"/>
     </row>
     <row r="262" ht="15.75" customHeight="1">
-      <c r="A262" s="2"/>
+      <c r="A262" s="1"/>
     </row>
     <row r="263" ht="15.75" customHeight="1">
-      <c r="A263" s="2"/>
+      <c r="A263" s="1"/>
     </row>
     <row r="264" ht="15.75" customHeight="1">
-      <c r="A264" s="2"/>
+      <c r="A264" s="1"/>
     </row>
     <row r="265" ht="15.75" customHeight="1">
-      <c r="A265" s="2"/>
+      <c r="A265" s="1"/>
     </row>
     <row r="266" ht="15.75" customHeight="1">
-      <c r="A266" s="2"/>
+      <c r="A266" s="1"/>
     </row>
     <row r="267" ht="15.75" customHeight="1">
-      <c r="A267" s="2"/>
+      <c r="A267" s="1"/>
     </row>
     <row r="268" ht="15.75" customHeight="1">
-      <c r="A268" s="2"/>
+      <c r="A268" s="1"/>
     </row>
     <row r="269" ht="15.75" customHeight="1">
-      <c r="A269" s="2"/>
+      <c r="A269" s="1"/>
     </row>
     <row r="270" ht="15.75" customHeight="1">
-      <c r="A270" s="2"/>
+      <c r="A270" s="1"/>
     </row>
     <row r="271" ht="15.75" customHeight="1">
-      <c r="A271" s="2"/>
+      <c r="A271" s="1"/>
     </row>
     <row r="272" ht="15.75" customHeight="1">
-      <c r="A272" s="2"/>
+      <c r="A272" s="1"/>
     </row>
     <row r="273" ht="15.75" customHeight="1">
-      <c r="A273" s="2"/>
+      <c r="A273" s="1"/>
     </row>
     <row r="274" ht="15.75" customHeight="1">
-      <c r="A274" s="2"/>
+      <c r="A274" s="1"/>
     </row>
     <row r="275" ht="15.75" customHeight="1">
-      <c r="A275" s="2"/>
+      <c r="A275" s="1"/>
     </row>
     <row r="276" ht="15.75" customHeight="1">
-      <c r="A276" s="2"/>
+      <c r="A276" s="1"/>
     </row>
     <row r="277" ht="15.75" customHeight="1">
-      <c r="A277" s="2"/>
+      <c r="A277" s="1"/>
     </row>
     <row r="278" ht="15.75" customHeight="1">
-      <c r="A278" s="2"/>
+      <c r="A278" s="1"/>
     </row>
     <row r="279" ht="15.75" customHeight="1">
-      <c r="A279" s="2"/>
+      <c r="A279" s="1"/>
     </row>
     <row r="280" ht="15.75" customHeight="1">
-      <c r="A280" s="2"/>
+      <c r="A280" s="1"/>
     </row>
     <row r="281" ht="15.75" customHeight="1">
-      <c r="A281" s="2"/>
+      <c r="A281" s="1"/>
     </row>
     <row r="282" ht="15.75" customHeight="1">
-      <c r="A282" s="2"/>
+      <c r="A282" s="1"/>
     </row>
     <row r="283" ht="15.75" customHeight="1">
-      <c r="A283" s="2"/>
+      <c r="A283" s="1"/>
     </row>
     <row r="284" ht="15.75" customHeight="1">
-      <c r="A284" s="2"/>
+      <c r="A284" s="1"/>
     </row>
     <row r="285" ht="15.75" customHeight="1">
-      <c r="A285" s="2"/>
+      <c r="A285" s="1"/>
     </row>
     <row r="286" ht="15.75" customHeight="1">
-      <c r="A286" s="2"/>
+      <c r="A286" s="1"/>
     </row>
     <row r="287" ht="15.75" customHeight="1">
-      <c r="A287" s="2"/>
+      <c r="A287" s="1"/>
     </row>
     <row r="288" ht="15.75" customHeight="1">
-      <c r="A288" s="2"/>
+      <c r="A288" s="1"/>
     </row>
     <row r="289" ht="15.75" customHeight="1">
-      <c r="A289" s="2"/>
+      <c r="A289" s="1"/>
     </row>
     <row r="290" ht="15.75" customHeight="1">
-      <c r="A290" s="2"/>
+      <c r="A290" s="1"/>
     </row>
     <row r="291" ht="15.75" customHeight="1">
-      <c r="A291" s="2"/>
+      <c r="A291" s="1"/>
     </row>
     <row r="292" ht="15.75" customHeight="1">
-      <c r="A292" s="2"/>
+      <c r="A292" s="1"/>
     </row>
     <row r="293" ht="15.75" customHeight="1">
-      <c r="A293" s="2"/>
+      <c r="A293" s="1"/>
     </row>
     <row r="294" ht="15.75" customHeight="1">
-      <c r="A294" s="2"/>
+      <c r="A294" s="1"/>
     </row>
     <row r="295" ht="15.75" customHeight="1">
-      <c r="A295" s="2"/>
+      <c r="A295" s="1"/>
     </row>
     <row r="296" ht="15.75" customHeight="1">
-      <c r="A296" s="2"/>
+      <c r="A296" s="1"/>
     </row>
     <row r="297" ht="15.75" customHeight="1">
-      <c r="A297" s="2"/>
+      <c r="A297" s="1"/>
     </row>
     <row r="298" ht="15.75" customHeight="1">
-      <c r="A298" s="2"/>
+      <c r="A298" s="1"/>
     </row>
     <row r="299" ht="15.75" customHeight="1">
-      <c r="A299" s="2"/>
+      <c r="A299" s="1"/>
     </row>
     <row r="300" ht="15.75" customHeight="1">
-      <c r="A300" s="2"/>
+      <c r="A300" s="1"/>
     </row>
     <row r="301" ht="15.75" customHeight="1">
-      <c r="A301" s="2"/>
+      <c r="A301" s="1"/>
     </row>
     <row r="302" ht="15.75" customHeight="1">
-      <c r="A302" s="2"/>
+      <c r="A302" s="1"/>
     </row>
     <row r="303" ht="15.75" customHeight="1">
-      <c r="A303" s="2"/>
+      <c r="A303" s="1"/>
     </row>
     <row r="304" ht="15.75" customHeight="1">
-      <c r="A304" s="2"/>
+      <c r="A304" s="1"/>
     </row>
     <row r="305" ht="15.75" customHeight="1">
-      <c r="A305" s="2"/>
+      <c r="A305" s="1"/>
     </row>
     <row r="306" ht="15.75" customHeight="1">
-      <c r="A306" s="2"/>
+      <c r="A306" s="1"/>
     </row>
     <row r="307" ht="15.75" customHeight="1">
-      <c r="A307" s="2"/>
+      <c r="A307" s="1"/>
     </row>
     <row r="308" ht="15.75" customHeight="1">
-      <c r="A308" s="2"/>
+      <c r="A308" s="1"/>
     </row>
     <row r="309" ht="15.75" customHeight="1">
-      <c r="A309" s="2"/>
+      <c r="A309" s="1"/>
     </row>
     <row r="310" ht="15.75" customHeight="1">
-      <c r="A310" s="2"/>
+      <c r="A310" s="1"/>
     </row>
     <row r="311" ht="15.75" customHeight="1">
-      <c r="A311" s="2"/>
+      <c r="A311" s="1"/>
     </row>
     <row r="312" ht="15.75" customHeight="1">
-      <c r="A312" s="2"/>
+      <c r="A312" s="1"/>
     </row>
     <row r="313" ht="15.75" customHeight="1">
-      <c r="A313" s="2"/>
+      <c r="A313" s="1"/>
     </row>
     <row r="314" ht="15.75" customHeight="1">
-      <c r="A314" s="2"/>
+      <c r="A314" s="1"/>
     </row>
     <row r="315" ht="15.75" customHeight="1">
-      <c r="A315" s="2"/>
+      <c r="A315" s="1"/>
     </row>
     <row r="316" ht="15.75" customHeight="1">
-      <c r="A316" s="2"/>
+      <c r="A316" s="1"/>
     </row>
     <row r="317" ht="15.75" customHeight="1">
-      <c r="A317" s="2"/>
+      <c r="A317" s="1"/>
     </row>
     <row r="318" ht="15.75" customHeight="1">
-      <c r="A318" s="2"/>
+      <c r="A318" s="1"/>
     </row>
     <row r="319" ht="15.75" customHeight="1">
-      <c r="A319" s="2"/>
+      <c r="A319" s="1"/>
     </row>
     <row r="320" ht="15.75" customHeight="1">
-      <c r="A320" s="2"/>
+      <c r="A320" s="1"/>
     </row>
     <row r="321" ht="15.75" customHeight="1">
-      <c r="A321" s="2"/>
+      <c r="A321" s="1"/>
     </row>
     <row r="322" ht="15.75" customHeight="1">
-      <c r="A322" s="2"/>
+      <c r="A322" s="1"/>
     </row>
     <row r="323" ht="15.75" customHeight="1">
-      <c r="A323" s="2"/>
+      <c r="A323" s="1"/>
     </row>
     <row r="324" ht="15.75" customHeight="1">
-      <c r="A324" s="2"/>
+      <c r="A324" s="1"/>
     </row>
     <row r="325" ht="15.75" customHeight="1">
-      <c r="A325" s="2"/>
+      <c r="A325" s="1"/>
     </row>
     <row r="326" ht="15.75" customHeight="1">
-      <c r="A326" s="2"/>
+      <c r="A326" s="1"/>
     </row>
     <row r="327" ht="15.75" customHeight="1">
-      <c r="A327" s="2"/>
+      <c r="A327" s="1"/>
     </row>
     <row r="328" ht="15.75" customHeight="1">
-      <c r="A328" s="2"/>
+      <c r="A328" s="1"/>
     </row>
     <row r="329" ht="15.75" customHeight="1">
-      <c r="A329" s="2"/>
+      <c r="A329" s="1"/>
     </row>
     <row r="330" ht="15.75" customHeight="1">
-      <c r="A330" s="2"/>
+      <c r="A330" s="1"/>
     </row>
     <row r="331" ht="15.75" customHeight="1">
-      <c r="A331" s="2"/>
+      <c r="A331" s="1"/>
     </row>
     <row r="332" ht="15.75" customHeight="1">
-      <c r="A332" s="2"/>
+      <c r="A332" s="1"/>
     </row>
     <row r="333" ht="15.75" customHeight="1">
-      <c r="A333" s="2"/>
+      <c r="A333" s="1"/>
     </row>
     <row r="334" ht="15.75" customHeight="1">
-      <c r="A334" s="2"/>
+      <c r="A334" s="1"/>
     </row>
     <row r="335" ht="15.75" customHeight="1">
-      <c r="A335" s="2"/>
+      <c r="A335" s="1"/>
     </row>
     <row r="336" ht="15.75" customHeight="1">
-      <c r="A336" s="2"/>
+      <c r="A336" s="1"/>
     </row>
     <row r="337" ht="15.75" customHeight="1">
-      <c r="A337" s="2"/>
+      <c r="A337" s="1"/>
     </row>
     <row r="338" ht="15.75" customHeight="1">
-      <c r="A338" s="2"/>
+      <c r="A338" s="1"/>
     </row>
     <row r="339" ht="15.75" customHeight="1">
-      <c r="A339" s="2"/>
+      <c r="A339" s="1"/>
     </row>
     <row r="340" ht="15.75" customHeight="1">
-      <c r="A340" s="2"/>
+      <c r="A340" s="1"/>
     </row>
     <row r="341" ht="15.75" customHeight="1"/>
     <row r="342" ht="15.75" customHeight="1"/>
@@ -4347,28 +4347,28 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" ht="15.75" customHeight="1">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
+      <c r="A3" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
+      <c r="A4" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="2" t="s">
-        <v>7</v>
+      <c r="A5" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1"/>
